--- a/trac_tongue/xlsx/MU4-7-20171110-7.xlsx
+++ b/trac_tongue/xlsx/MU4-7-20171110-7.xlsx
@@ -6139,7 +6139,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>2.900652646845538</v>
+        <v>2.683103698332123</v>
       </c>
       <c r="D2" t="str">
         <v>points-0</v>
       </c>
       <c r="E2">
-        <v>59.75771205357143</v>
+        <v>54.735234375</v>
       </c>
       <c r="F2">
-        <v>95.5245703125</v>
+        <v>104.59428571428572</v>
       </c>
       <c r="G2" t="str">
         <v>#F44336</v>
@@ -6192,22 +6192,22 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>2.9731689630166764</v>
+        <v>2.755620014503261</v>
       </c>
       <c r="D3" t="str">
         <v>points-0</v>
       </c>
       <c r="E3">
-        <v>62.68342633928572</v>
+        <v>56.92952008928572</v>
       </c>
       <c r="F3">
-        <v>95.15885602678571</v>
+        <v>99.84</v>
       </c>
       <c r="G3" t="str">
         <v>#F44336</v>
@@ -6215,22 +6215,22 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>3.045685279187815</v>
+        <v>2.8281363306743996</v>
       </c>
       <c r="D4" t="str">
         <v>points-0</v>
       </c>
       <c r="E4">
-        <v>64.14628348214286</v>
+        <v>55.83237723214286</v>
       </c>
       <c r="F4">
-        <v>94.06171316964286</v>
+        <v>99.10857142857142</v>
       </c>
       <c r="G4" t="str">
         <v>#F44336</v>
@@ -6238,22 +6238,22 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>3.1182015953589532</v>
+        <v>2.900652646845538</v>
       </c>
       <c r="D5" t="str">
         <v>points-0</v>
       </c>
       <c r="E5">
-        <v>64.14628348214286</v>
+        <v>56.831997767857146</v>
       </c>
       <c r="F5">
-        <v>94.06171316964286</v>
+        <v>98.81599888392857</v>
       </c>
       <c r="G5" t="str">
         <v>#F44336</v>
@@ -6261,22 +6261,22 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>3.1907179115300917</v>
+        <v>2.9731689630166764</v>
       </c>
       <c r="D6" t="str">
         <v>points-0</v>
       </c>
       <c r="E6">
-        <v>64.14628348214286</v>
+        <v>59.39199776785714</v>
       </c>
       <c r="F6">
-        <v>94.06171316964286</v>
+        <v>98.45028459821428</v>
       </c>
       <c r="G6" t="str">
         <v>#F44336</v>
@@ -6284,22 +6284,22 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>3.26323422770123</v>
+        <v>3.045685279187815</v>
       </c>
       <c r="D7" t="str">
         <v>points-0</v>
       </c>
       <c r="E7">
-        <v>64.14628348214286</v>
+        <v>62.31771205357144</v>
       </c>
       <c r="F7">
-        <v>94.06171316964286</v>
+        <v>96.25599888392857</v>
       </c>
       <c r="G7" t="str">
         <v>#F44336</v>
@@ -6307,22 +6307,22 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>3.3357505438723685</v>
+        <v>3.1182015953589532</v>
       </c>
       <c r="D8" t="str">
         <v>points-0</v>
       </c>
       <c r="E8">
-        <v>66.70628348214287</v>
+        <v>61.95199776785715</v>
       </c>
       <c r="F8">
-        <v>103.93599888392858</v>
+        <v>95.89028459821428</v>
       </c>
       <c r="G8" t="str">
         <v>#F44336</v>
@@ -6330,22 +6330,22 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>3.408266860043507</v>
+        <v>3.1907179115300917</v>
       </c>
       <c r="D9" t="str">
         <v>points-0</v>
       </c>
       <c r="E9">
-        <v>67.07199776785716</v>
+        <v>60.854854910714295</v>
       </c>
       <c r="F9">
-        <v>111.25028459821428</v>
+        <v>95.5245703125</v>
       </c>
       <c r="G9" t="str">
         <v>#F44336</v>
@@ -6353,22 +6353,22 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>3.4807831762146453</v>
+        <v>3.26323422770123</v>
       </c>
       <c r="D10" t="str">
         <v>points-0</v>
       </c>
       <c r="E10">
-        <v>64.87771205357144</v>
+        <v>60.12342633928572</v>
       </c>
       <c r="F10">
-        <v>110.15314174107142</v>
+        <v>96.98742745535715</v>
       </c>
       <c r="G10" t="str">
         <v>#F44336</v>
@@ -6376,30 +6376,99 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>3.5532994923857837</v>
+        <v>3.3357505438723685</v>
       </c>
       <c r="D11" t="str">
         <v>points-0</v>
       </c>
       <c r="E11">
-        <v>63.78056919642858</v>
+        <v>63.4148549107143</v>
       </c>
       <c r="F11">
-        <v>109.05599888392857</v>
+        <v>107.59314174107143</v>
       </c>
       <c r="G11" t="str">
         <v>#F44336</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>3.408266860043507</v>
+      </c>
+      <c r="D12" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E12">
+        <v>65.60914062500001</v>
+      </c>
+      <c r="F12">
+        <v>112.71314174107142</v>
+      </c>
+      <c r="G12" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>3.4807831762146453</v>
+      </c>
+      <c r="D13" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E13">
+        <v>64.51199776785715</v>
+      </c>
+      <c r="F13">
+        <v>113.4445703125</v>
+      </c>
+      <c r="G13" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>3.5532994923857837</v>
+      </c>
+      <c r="D14" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E14">
+        <v>63.78056919642858</v>
+      </c>
+      <c r="F14">
+        <v>109.05599888392857</v>
+      </c>
+      <c r="G14" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G14"/>
   </ignoredErrors>
 </worksheet>
 </file>
